--- a/NA241/Data/NA241.xlsx
+++ b/NA241/Data/NA241.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamil_khaan/Desktop/Soch/NA241/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B084734-CDF1-4B4E-B032-CBC597FB7788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7435AAC3-1811-924F-9873-B8BFF5F4CDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="7000" windowWidth="28100" windowHeight="17440" xr2:uid="{7B54B2BD-5315-9144-A961-46C52A8C9EDB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="20">
   <si>
     <t>PSNO_NA_ECP</t>
   </si>
@@ -89,13 +89,13 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>Khurram Sher Zaman</t>
+    <t>Equal votes</t>
   </si>
   <si>
-    <t>Mirza Ikhtiar Baig</t>
+    <t>Khurram Sher Zaman (PTI)</t>
   </si>
   <si>
-    <t>Equal votes</t>
+    <t>Mirza Ikhtiar Baig (PPP)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:P235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection sqref="A1:P235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,8 +575,8 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+      <c r="G2" s="2">
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>136</v>
@@ -600,7 +600,7 @@
         <v>387</v>
       </c>
       <c r="O2" s="2">
-        <v>601</v>
+        <v>664</v>
       </c>
       <c r="P2" s="2" t="e">
         <v>#VALUE!</v>
@@ -620,7 +620,7 @@
         <v>2074</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>2402</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -717,10 +717,10 @@
         <v>109</v>
       </c>
       <c r="D5" s="2">
-        <v>664</v>
+        <v>2300</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>222</v>
       </c>
       <c r="I5" s="2">
-        <v>33.433734940000001</v>
+        <v>9.6521739130000004</v>
       </c>
       <c r="J5" s="2">
         <v>673</v>
       </c>
       <c r="K5" s="2">
-        <v>101.35542169999999</v>
+        <v>29.260869570000001</v>
       </c>
       <c r="L5" s="2">
         <v>451</v>
@@ -770,7 +770,7 @@
         <v>2410</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>98</v>
@@ -799,7 +799,9 @@
       <c r="N6" s="2">
         <v>653</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>923</v>
+      </c>
       <c r="P6" s="2">
         <v>-33</v>
       </c>
@@ -818,7 +820,7 @@
         <v>2544</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
         <v>71</v>
@@ -865,10 +867,10 @@
         <v>109</v>
       </c>
       <c r="D8" s="2">
-        <v>2976</v>
+        <v>2676</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
         <v>21</v>
@@ -880,13 +882,13 @@
         <v>70</v>
       </c>
       <c r="I8" s="2">
-        <v>2.3521505380000001</v>
+        <v>2.6158445440000002</v>
       </c>
       <c r="J8" s="2">
         <v>882</v>
       </c>
       <c r="K8" s="2">
-        <v>29.637096769999999</v>
+        <v>32.959641259999998</v>
       </c>
       <c r="L8" s="2">
         <v>812</v>
@@ -918,7 +920,7 @@
         <v>2199</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2">
         <v>33</v>
@@ -968,7 +970,7 @@
         <v>2565</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
         <v>56</v>
@@ -1018,7 +1020,7 @@
         <v>1944</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
         <v>78</v>
@@ -1068,7 +1070,7 @@
         <v>2334</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2">
         <v>59</v>
@@ -1118,7 +1120,7 @@
         <v>1814</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
         <v>106</v>
@@ -1168,7 +1170,7 @@
         <v>1709</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
         <v>150</v>
@@ -1218,7 +1220,7 @@
         <v>1556</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
         <v>137</v>
@@ -1268,7 +1270,7 @@
         <v>1318</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2">
         <v>195</v>
@@ -1318,7 +1320,7 @@
         <v>1844</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2">
         <v>41</v>
@@ -1348,7 +1350,7 @@
         <v>317</v>
       </c>
       <c r="O17" s="2">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -1368,7 +1370,7 @@
         <v>1867</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2">
         <v>120</v>
@@ -1394,7 +1396,9 @@
       <c r="M18" s="2">
         <v>118</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="2">
+        <v>193</v>
+      </c>
       <c r="O18" s="2">
         <v>639</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>2889</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2">
         <v>73</v>
@@ -1466,7 +1470,7 @@
         <v>2487</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2">
         <v>88</v>
@@ -1481,13 +1485,13 @@
         <v>7.8407720139999997</v>
       </c>
       <c r="J20" s="2">
-        <v>2487</v>
+        <v>723</v>
       </c>
       <c r="K20" s="2">
-        <v>100</v>
+        <v>29.071170080000002</v>
       </c>
       <c r="L20" s="2">
-        <v>2292</v>
+        <v>528</v>
       </c>
       <c r="M20" s="2">
         <v>82</v>
@@ -1516,7 +1520,7 @@
         <v>2396</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2">
         <v>67</v>
@@ -1566,7 +1570,7 @@
         <v>1870</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2">
         <v>61</v>
@@ -1613,10 +1617,10 @@
         <v>109</v>
       </c>
       <c r="D23" s="2">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2">
         <v>41</v>
@@ -1628,13 +1632,13 @@
         <v>79</v>
       </c>
       <c r="I23" s="2">
-        <v>3.9050914479999999</v>
+        <v>3.895463511</v>
       </c>
       <c r="J23" s="2">
         <v>861</v>
       </c>
       <c r="K23" s="2">
-        <v>42.560553630000001</v>
+        <v>42.455621299999997</v>
       </c>
       <c r="L23" s="2">
         <v>782</v>
@@ -1666,7 +1670,7 @@
         <v>1854</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2">
         <v>152</v>
@@ -1716,7 +1720,7 @@
         <v>1853</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2">
         <v>104</v>
@@ -1763,10 +1767,10 @@
         <v>109</v>
       </c>
       <c r="D26" s="2">
-        <v>567</v>
+        <v>2032</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2">
         <v>384</v>
@@ -1778,13 +1782,13 @@
         <v>557</v>
       </c>
       <c r="I26" s="2">
-        <v>98.236331570000004</v>
+        <v>27.411417320000002</v>
       </c>
       <c r="J26" s="2">
         <v>571</v>
       </c>
       <c r="K26" s="2">
-        <v>100.7054674</v>
+        <v>28.100393700000001</v>
       </c>
       <c r="L26" s="2">
         <v>14</v>
@@ -1816,7 +1820,7 @@
         <v>1492</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2">
         <v>410</v>
@@ -1866,7 +1870,7 @@
         <v>2548</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2">
         <v>463</v>
@@ -1881,13 +1885,13 @@
         <v>19.740973310000001</v>
       </c>
       <c r="J28" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="K28" s="2">
-        <v>35.243328099999999</v>
+        <v>35.125588700000002</v>
       </c>
       <c r="L28" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M28" s="2">
         <v>39</v>
@@ -1916,7 +1920,7 @@
         <v>1925</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2">
         <v>442</v>
@@ -1966,7 +1970,7 @@
         <v>1883</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2">
         <v>653</v>
@@ -2016,7 +2020,7 @@
         <v>2021</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2">
         <v>600</v>
@@ -2063,10 +2067,10 @@
         <v>109</v>
       </c>
       <c r="D32" s="2">
-        <v>588</v>
+        <v>2114</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2">
         <v>445</v>
@@ -2078,13 +2082,13 @@
         <v>495</v>
       </c>
       <c r="I32" s="2">
-        <v>84.183673470000002</v>
+        <v>23.415326400000001</v>
       </c>
       <c r="J32" s="2">
         <v>587</v>
       </c>
       <c r="K32" s="2">
-        <v>99.829931970000004</v>
+        <v>27.767265850000001</v>
       </c>
       <c r="L32" s="2">
         <v>92</v>
@@ -2116,7 +2120,7 @@
         <v>1624</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2">
         <v>460</v>
@@ -2166,7 +2170,7 @@
         <v>1555</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F34" s="2">
         <v>375</v>
@@ -2216,7 +2220,7 @@
         <v>2376</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F35" s="2">
         <v>279</v>
@@ -2263,10 +2267,10 @@
         <v>109</v>
       </c>
       <c r="D36" s="2">
-        <v>2875</v>
+        <v>2711</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" s="2">
         <v>237</v>
@@ -2278,13 +2282,13 @@
         <v>317</v>
       </c>
       <c r="I36" s="2">
-        <v>11.026086960000001</v>
+        <v>11.69310218</v>
       </c>
       <c r="J36" s="2">
         <v>1002</v>
       </c>
       <c r="K36" s="2">
-        <v>34.852173909999998</v>
+        <v>36.960531170000003</v>
       </c>
       <c r="L36" s="2">
         <v>685</v>
@@ -2316,7 +2320,7 @@
         <v>2466</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" s="2">
         <v>371</v>
@@ -2366,7 +2370,7 @@
         <v>2778</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2">
         <v>246</v>
@@ -2416,7 +2420,7 @@
         <v>2815</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F39" s="2">
         <v>237</v>
@@ -2466,7 +2470,7 @@
         <v>2616</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2">
         <v>263</v>
@@ -2516,7 +2520,7 @@
         <v>1562</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" s="2">
         <v>317</v>
@@ -2566,7 +2570,7 @@
         <v>2449</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F42" s="2">
         <v>193</v>
@@ -2616,7 +2620,7 @@
         <v>1984</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" s="2">
         <v>91</v>
@@ -2631,13 +2635,13 @@
         <v>19.959677419999998</v>
       </c>
       <c r="J43" s="2">
-        <v>777</v>
+        <v>866</v>
       </c>
       <c r="K43" s="2">
-        <v>39.16330645</v>
+        <v>43.64919355</v>
       </c>
       <c r="L43" s="2">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="M43" s="2">
         <v>261</v>
@@ -2666,7 +2670,7 @@
         <v>1993</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F44" s="2">
         <v>247</v>
@@ -2713,10 +2717,10 @@
         <v>109</v>
       </c>
       <c r="D45" s="2">
-        <v>858</v>
+        <v>1639</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" s="2">
         <v>243</v>
@@ -2728,13 +2732,13 @@
         <v>474</v>
       </c>
       <c r="I45" s="2">
-        <v>55.244755240000003</v>
+        <v>28.920073219999999</v>
       </c>
       <c r="J45" s="2">
         <v>197</v>
       </c>
       <c r="K45" s="2">
-        <v>22.960372960000001</v>
+        <v>12.0195241</v>
       </c>
       <c r="L45" s="2">
         <v>277</v>
@@ -2766,7 +2770,7 @@
         <v>2456</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F46" s="2">
         <v>261</v>
@@ -2816,7 +2820,7 @@
         <v>1715</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F47" s="2">
         <v>403</v>
@@ -2866,7 +2870,7 @@
         <v>2262</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F48" s="2">
         <v>291</v>
@@ -2916,7 +2920,7 @@
         <v>1919</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F49" s="2">
         <v>313</v>
@@ -2966,7 +2970,7 @@
         <v>1975</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" s="2">
         <v>313</v>
@@ -3016,7 +3020,7 @@
         <v>2591</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F51" s="2">
         <v>184</v>
@@ -3066,7 +3070,7 @@
         <v>2141</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F52" s="2">
         <v>478</v>
@@ -3116,7 +3120,7 @@
         <v>2095</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -3166,7 +3170,7 @@
         <v>1861</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
@@ -3213,10 +3217,10 @@
         <v>110</v>
       </c>
       <c r="D55" s="2">
-        <v>2200</v>
+        <v>2139</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F55" s="2">
         <v>335</v>
@@ -3228,16 +3232,16 @@
         <v>661</v>
       </c>
       <c r="I55" s="2">
-        <v>30.045454549999999</v>
+        <v>30.902290789999999</v>
       </c>
       <c r="J55" s="2">
-        <v>608</v>
+        <v>875</v>
       </c>
       <c r="K55" s="2">
-        <v>27.636363639999999</v>
+        <v>40.906965870000001</v>
       </c>
       <c r="L55" s="2">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="M55" s="2">
         <v>301</v>
@@ -3266,7 +3270,7 @@
         <v>2440</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F56" s="2">
         <v>344</v>
@@ -3281,13 +3285,13 @@
         <v>23.237704919999999</v>
       </c>
       <c r="J56" s="2">
-        <v>721</v>
+        <v>904</v>
       </c>
       <c r="K56" s="2">
-        <v>29.549180329999999</v>
+        <v>37.049180329999999</v>
       </c>
       <c r="L56" s="2">
-        <v>154</v>
+        <v>337</v>
       </c>
       <c r="M56" s="2">
         <v>224</v>
@@ -3316,7 +3320,7 @@
         <v>2297</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F57" s="2">
         <v>367</v>
@@ -3331,13 +3335,13 @@
         <v>34.39268611</v>
       </c>
       <c r="J57" s="2">
-        <v>906</v>
+        <v>949</v>
       </c>
       <c r="K57" s="2">
-        <v>39.44275141</v>
+        <v>41.314758380000001</v>
       </c>
       <c r="L57" s="2">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="M57" s="2">
         <v>233</v>
@@ -3366,7 +3370,7 @@
         <v>1591</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F58" s="2">
         <v>488</v>
@@ -3416,7 +3420,7 @@
         <v>1901</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F59" s="2">
         <v>509</v>
@@ -3430,14 +3434,14 @@
       <c r="I59" s="2">
         <v>36.349289849999998</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L59" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J59" s="2">
+        <v>663</v>
+      </c>
+      <c r="K59" s="2">
+        <v>34.876380849999997</v>
+      </c>
+      <c r="L59" s="2">
+        <v>28</v>
       </c>
       <c r="M59" s="2">
         <v>182</v>
@@ -3466,7 +3470,7 @@
         <v>1862</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F60" s="2">
         <v>1055</v>
@@ -3481,13 +3485,13 @@
         <v>57.89473684</v>
       </c>
       <c r="J60" s="2">
-        <v>926</v>
+        <v>771</v>
       </c>
       <c r="K60" s="2">
-        <v>49.731471540000001</v>
+        <v>41.407089149999997</v>
       </c>
       <c r="L60" s="2">
-        <v>152</v>
+        <v>307</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>16</v>
@@ -3516,7 +3520,7 @@
         <v>1724</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" s="2">
         <v>772</v>
@@ -3531,13 +3535,13 @@
         <v>52.552204179999997</v>
       </c>
       <c r="J61" s="2">
-        <v>948</v>
+        <v>608</v>
       </c>
       <c r="K61" s="2">
-        <v>54.98839907</v>
+        <v>35.266821350000001</v>
       </c>
       <c r="L61" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="M61" s="2">
         <v>134</v>
@@ -3566,7 +3570,7 @@
         <v>1824</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F62" s="2">
         <v>625</v>
@@ -3616,7 +3620,7 @@
         <v>2069</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F63" s="2">
         <v>590</v>
@@ -3631,13 +3635,13 @@
         <v>38.666022230000003</v>
       </c>
       <c r="J63" s="2">
-        <v>882</v>
+        <v>813</v>
       </c>
       <c r="K63" s="2">
-        <v>42.62928951</v>
+        <v>39.29434509</v>
       </c>
       <c r="L63" s="2">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M63" s="2">
         <v>210</v>
@@ -3666,7 +3670,7 @@
         <v>1805</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F64" s="2">
         <v>477</v>
@@ -3716,7 +3720,7 @@
         <v>1632</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F65" s="2">
         <v>356</v>
@@ -3730,14 +3734,14 @@
       <c r="I65" s="2">
         <v>26.83823529</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L65" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J65" s="2">
+        <v>862</v>
+      </c>
+      <c r="K65" s="2">
+        <v>52.818627450000001</v>
+      </c>
+      <c r="L65" s="2">
+        <v>424</v>
       </c>
       <c r="M65" s="2">
         <v>353</v>
@@ -3763,10 +3767,10 @@
         <v>110</v>
       </c>
       <c r="D66" s="2">
-        <v>1700</v>
+        <v>1670</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F66" s="2">
         <v>356</v>
@@ -3778,16 +3782,16 @@
         <v>443</v>
       </c>
       <c r="I66" s="2">
-        <v>26.058823530000002</v>
+        <v>26.526946110000001</v>
       </c>
       <c r="J66" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K66" s="2">
-        <v>34.117647060000003</v>
+        <v>34.910179640000003</v>
       </c>
       <c r="L66" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M66" s="2">
         <v>87</v>
@@ -3816,7 +3820,7 @@
         <v>1602</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F67" s="2">
         <v>227</v>
@@ -3831,13 +3835,13 @@
         <v>18.476903870000001</v>
       </c>
       <c r="J67" s="2">
-        <v>762</v>
+        <v>481</v>
       </c>
       <c r="K67" s="2">
-        <v>47.565543069999997</v>
+        <v>30.024968789999999</v>
       </c>
       <c r="L67" s="2">
-        <v>466</v>
+        <v>185</v>
       </c>
       <c r="M67" s="2">
         <v>44</v>
@@ -3866,7 +3870,7 @@
         <v>2938</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F68" s="2">
         <v>281</v>
@@ -3880,14 +3884,14 @@
       <c r="I68" s="2">
         <v>13.240299520000001</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L68" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J68" s="2">
+        <v>817</v>
+      </c>
+      <c r="K68" s="2">
+        <v>27.80803268</v>
+      </c>
+      <c r="L68" s="2">
+        <v>428</v>
       </c>
       <c r="M68" s="2">
         <v>108</v>
@@ -3916,7 +3920,7 @@
         <v>2672</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F69" s="2">
         <v>105</v>
@@ -3930,14 +3934,14 @@
       <c r="I69" s="2">
         <v>17.73952096</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L69" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J69" s="2">
+        <v>754</v>
+      </c>
+      <c r="K69" s="2">
+        <v>28.21856287</v>
+      </c>
+      <c r="L69" s="2">
+        <v>280</v>
       </c>
       <c r="M69" s="2">
         <v>119</v>
@@ -3966,7 +3970,7 @@
         <v>2844</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F70" s="2">
         <v>444</v>
@@ -3980,14 +3984,14 @@
       <c r="I70" s="2">
         <v>18.811533050000001</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L70" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J70" s="2">
+        <v>756</v>
+      </c>
+      <c r="K70" s="2">
+        <v>26.582278479999999</v>
+      </c>
+      <c r="L70" s="2">
+        <v>221</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>16</v>
@@ -4016,7 +4020,7 @@
         <v>2227</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F71" s="2">
         <v>297</v>
@@ -4030,14 +4034,14 @@
       <c r="I71" s="2">
         <v>17.28783116</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L71" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J71" s="2">
+        <v>393</v>
+      </c>
+      <c r="K71" s="2">
+        <v>17.647058820000002</v>
+      </c>
+      <c r="L71" s="2">
+        <v>8</v>
       </c>
       <c r="M71" s="2">
         <v>88</v>
@@ -4063,10 +4067,10 @@
         <v>110</v>
       </c>
       <c r="D72" s="2">
-        <v>636</v>
+        <v>2604</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F72" s="2">
         <v>337</v>
@@ -4078,16 +4082,16 @@
         <v>440</v>
       </c>
       <c r="I72" s="2">
-        <v>69.182389939999993</v>
+        <v>16.897081409999998</v>
       </c>
       <c r="J72" s="2">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="K72" s="2">
-        <v>97.955974839999996</v>
+        <v>24.423963130000001</v>
       </c>
       <c r="L72" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="M72" s="2">
         <v>103</v>
@@ -4116,7 +4120,7 @@
         <v>1795</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F73" s="2">
         <v>356</v>
@@ -4131,13 +4135,13 @@
         <v>22.72980501</v>
       </c>
       <c r="J73" s="2">
-        <v>641</v>
+        <v>487</v>
       </c>
       <c r="K73" s="2">
-        <v>35.710306410000001</v>
+        <v>27.130919219999999</v>
       </c>
       <c r="L73" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="M73" s="2">
         <v>52</v>
@@ -4166,7 +4170,7 @@
         <v>1848</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74" s="2">
         <v>282</v>
@@ -4181,13 +4185,13 @@
         <v>19.913419909999998</v>
       </c>
       <c r="J74" s="2">
-        <v>776</v>
+        <v>482</v>
       </c>
       <c r="K74" s="2">
-        <v>41.991341990000002</v>
+        <v>26.082251079999999</v>
       </c>
       <c r="L74" s="2">
-        <v>408</v>
+        <v>114</v>
       </c>
       <c r="M74" s="2">
         <v>86</v>
@@ -4216,7 +4220,7 @@
         <v>2163</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F75" s="2">
         <v>549</v>
@@ -4230,14 +4234,14 @@
       <c r="I75" s="2">
         <v>37.17059639</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L75" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J75" s="2">
+        <v>704</v>
+      </c>
+      <c r="K75" s="2">
+        <v>32.547387890000003</v>
+      </c>
+      <c r="L75" s="2">
+        <v>100</v>
       </c>
       <c r="M75" s="2">
         <v>14</v>
@@ -4266,7 +4270,7 @@
         <v>2214</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F76" s="2">
         <v>500</v>
@@ -4281,13 +4285,13 @@
         <v>24.43541102</v>
       </c>
       <c r="J76" s="2">
-        <v>737</v>
+        <v>656</v>
       </c>
       <c r="K76" s="2">
-        <v>33.28816621</v>
+        <v>29.62962963</v>
       </c>
       <c r="L76" s="2">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="M76" s="2">
         <v>31</v>
@@ -4313,10 +4317,10 @@
         <v>110</v>
       </c>
       <c r="D77" s="2">
-        <v>1018</v>
+        <v>3059</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F77" s="2">
         <v>221</v>
@@ -4328,16 +4332,16 @@
         <v>467</v>
       </c>
       <c r="I77" s="2">
-        <v>45.874263259999999</v>
+        <v>15.266426940000001</v>
       </c>
       <c r="J77" s="2">
-        <v>660</v>
+        <v>925</v>
       </c>
       <c r="K77" s="2">
-        <v>64.833005889999995</v>
+        <v>30.23864008</v>
       </c>
       <c r="L77" s="2">
-        <v>193</v>
+        <v>458</v>
       </c>
       <c r="M77" s="2">
         <v>476</v>
@@ -4363,10 +4367,10 @@
         <v>110</v>
       </c>
       <c r="D78" s="2">
-        <v>747</v>
+        <v>2429</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F78" s="2">
         <v>313</v>
@@ -4378,16 +4382,16 @@
         <v>612</v>
       </c>
       <c r="I78" s="2">
-        <v>81.927710840000003</v>
+        <v>25.19555373</v>
       </c>
       <c r="J78" s="2">
-        <v>861</v>
+        <v>747</v>
       </c>
       <c r="K78" s="2">
-        <v>115.2610442</v>
+        <v>30.753396460000001</v>
       </c>
       <c r="L78" s="2">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>16</v>
@@ -4416,7 +4420,7 @@
         <v>2014</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F79" s="2">
         <v>363</v>
@@ -4431,13 +4435,13 @@
         <v>27.01092354</v>
       </c>
       <c r="J79" s="2">
-        <v>653</v>
+        <v>713</v>
       </c>
       <c r="K79" s="2">
-        <v>32.423038730000002</v>
+        <v>35.40218471</v>
       </c>
       <c r="L79" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="M79" s="2">
         <v>181</v>
@@ -4466,7 +4470,7 @@
         <v>2860</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F80" s="2">
         <v>436</v>
@@ -4481,13 +4485,13 @@
         <v>31.223776220000001</v>
       </c>
       <c r="J80" s="2">
-        <v>691</v>
+        <v>1178</v>
       </c>
       <c r="K80" s="2">
-        <v>24.160839159999998</v>
+        <v>41.188811190000003</v>
       </c>
       <c r="L80" s="2">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="M80" s="2">
         <v>457</v>
@@ -4516,7 +4520,7 @@
         <v>1820</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F81" s="2">
         <v>481</v>
@@ -4530,14 +4534,14 @@
       <c r="I81" s="2">
         <v>41.648351650000002</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L81" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J81" s="2">
+        <v>726</v>
+      </c>
+      <c r="K81" s="2">
+        <v>39.890109889999998</v>
+      </c>
+      <c r="L81" s="2">
+        <v>32</v>
       </c>
       <c r="M81" s="2">
         <v>277</v>
@@ -4566,7 +4570,7 @@
         <v>1479</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F82" s="2">
         <v>304</v>
@@ -4581,13 +4585,13 @@
         <v>33.400946589999997</v>
       </c>
       <c r="J82" s="2">
-        <v>811</v>
+        <v>598</v>
       </c>
       <c r="K82" s="2">
-        <v>54.834347530000002</v>
+        <v>40.432724810000003</v>
       </c>
       <c r="L82" s="2">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="M82" s="2">
         <v>180</v>
@@ -4613,10 +4617,10 @@
         <v>110</v>
       </c>
       <c r="D83" s="2">
-        <v>865</v>
+        <v>1632</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F83" s="2">
         <v>289</v>
@@ -4628,16 +4632,16 @@
         <v>486</v>
       </c>
       <c r="I83" s="2">
-        <v>56.184971099999999</v>
+        <v>29.779411759999999</v>
       </c>
       <c r="J83" s="2">
-        <v>951</v>
+        <v>619</v>
       </c>
       <c r="K83" s="2">
-        <v>109.94219649999999</v>
+        <v>37.92892157</v>
       </c>
       <c r="L83" s="2">
-        <v>465</v>
+        <v>133</v>
       </c>
       <c r="M83" s="2">
         <v>197</v>
@@ -4666,7 +4670,7 @@
         <v>2538</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F84" s="2">
         <v>346</v>
@@ -4681,13 +4685,13 @@
         <v>37.982663510000002</v>
       </c>
       <c r="J84" s="2">
-        <v>787</v>
+        <v>884</v>
       </c>
       <c r="K84" s="2">
-        <v>31.008668239999999</v>
+        <v>34.830575260000003</v>
       </c>
       <c r="L84" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="M84" s="2">
         <v>388</v>
@@ -4716,7 +4720,7 @@
         <v>1920</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F85" s="2">
         <v>337</v>
@@ -4731,13 +4735,13 @@
         <v>36.614583330000002</v>
       </c>
       <c r="J85" s="2">
-        <v>529</v>
+        <v>810</v>
       </c>
       <c r="K85" s="2">
-        <v>27.552083329999999</v>
+        <v>42.1875</v>
       </c>
       <c r="L85" s="2">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="M85" s="2">
         <v>366</v>
@@ -4766,7 +4770,7 @@
         <v>1749</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F86" s="2">
         <v>251</v>
@@ -4781,13 +4785,13 @@
         <v>41.280731850000002</v>
       </c>
       <c r="J86" s="2">
-        <v>628</v>
+        <v>821</v>
       </c>
       <c r="K86" s="2">
-        <v>35.906232129999999</v>
+        <v>46.94110921</v>
       </c>
       <c r="L86" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M86" s="2">
         <v>456</v>
@@ -4816,7 +4820,7 @@
         <v>2271</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F87" s="2">
         <v>458</v>
@@ -4831,13 +4835,13 @@
         <v>36.45970938</v>
       </c>
       <c r="J87" s="2">
-        <v>587</v>
+        <v>871</v>
       </c>
       <c r="K87" s="2">
-        <v>25.847644209999999</v>
+        <v>38.353148390000001</v>
       </c>
       <c r="L87" s="2">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="M87" s="2">
         <v>370</v>
@@ -4866,7 +4870,7 @@
         <v>1871</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F88" s="2">
         <v>277</v>
@@ -4880,14 +4884,14 @@
       <c r="I88" s="2">
         <v>25.921966860000001</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L88" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J88" s="2">
+        <v>652</v>
+      </c>
+      <c r="K88" s="2">
+        <v>34.847675039999999</v>
+      </c>
+      <c r="L88" s="2">
+        <v>167</v>
       </c>
       <c r="M88" s="2">
         <v>208</v>
@@ -4916,7 +4920,7 @@
         <v>1825</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F89" s="2">
         <v>330</v>
@@ -4931,13 +4935,13 @@
         <v>27.068493149999998</v>
       </c>
       <c r="J89" s="2">
-        <v>507</v>
+        <v>652</v>
       </c>
       <c r="K89" s="2">
-        <v>27.780821920000001</v>
+        <v>35.7260274</v>
       </c>
       <c r="L89" s="2">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M89" s="2">
         <v>164</v>
@@ -4966,7 +4970,7 @@
         <v>1778</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F90" s="2">
         <v>317</v>
@@ -4981,13 +4985,13 @@
         <v>42.688413949999997</v>
       </c>
       <c r="J90" s="2">
-        <v>608</v>
+        <v>796</v>
       </c>
       <c r="K90" s="2">
-        <v>34.195725529999997</v>
+        <v>44.769403820000001</v>
       </c>
       <c r="L90" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="M90" s="2">
         <v>442</v>
@@ -5016,7 +5020,7 @@
         <v>1402</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F91" s="2">
         <v>297</v>
@@ -5031,13 +5035,13 @@
         <v>25.249643370000001</v>
       </c>
       <c r="J91" s="2">
-        <v>1002</v>
+        <v>300</v>
       </c>
       <c r="K91" s="2">
-        <v>71.469329529999996</v>
+        <v>21.398002850000001</v>
       </c>
       <c r="L91" s="2">
-        <v>648</v>
+        <v>54</v>
       </c>
       <c r="M91" s="2">
         <v>57</v>
@@ -5066,7 +5070,7 @@
         <v>2433</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F92" s="2">
         <v>525</v>
@@ -5081,13 +5085,13 @@
         <v>24.53760789</v>
       </c>
       <c r="J92" s="2">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="K92" s="2">
-        <v>31.976983149999999</v>
+        <v>28.442252360000001</v>
       </c>
       <c r="L92" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="M92" s="2">
         <v>72</v>
@@ -5116,7 +5120,7 @@
         <v>2646</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F93" s="2">
         <v>464</v>
@@ -5131,13 +5135,13 @@
         <v>21.35298564</v>
       </c>
       <c r="J93" s="2">
-        <v>37</v>
+        <v>767</v>
       </c>
       <c r="K93" s="2">
-        <v>1.398337113</v>
+        <v>28.987150419999999</v>
       </c>
       <c r="L93" s="2">
-        <v>528</v>
+        <v>202</v>
       </c>
       <c r="M93" s="2">
         <v>104</v>
@@ -5166,7 +5170,7 @@
         <v>2067</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F94" s="2">
         <v>180</v>
@@ -5181,13 +5185,13 @@
         <v>27.04402516</v>
       </c>
       <c r="J94" s="2">
-        <v>770</v>
+        <v>479</v>
       </c>
       <c r="K94" s="2">
-        <v>37.252056119999999</v>
+        <v>23.17368166</v>
       </c>
       <c r="L94" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="M94" s="2">
         <v>59</v>
@@ -5216,10 +5220,10 @@
         <v>2358</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F95" s="2">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="G95" s="2">
         <v>105</v>
@@ -5231,13 +5235,13 @@
         <v>20.568278200000002</v>
       </c>
       <c r="J95" s="2">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="K95" s="2">
-        <v>27.650551310000001</v>
+        <v>29.346904160000001</v>
       </c>
       <c r="L95" s="2">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="M95" s="2">
         <v>105</v>
@@ -5266,7 +5270,7 @@
         <v>2108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F96" s="2">
         <v>443</v>
@@ -5281,13 +5285,13 @@
         <v>22.67552182</v>
       </c>
       <c r="J96" s="2">
-        <v>580</v>
+        <v>508</v>
       </c>
       <c r="K96" s="2">
-        <v>27.514231500000001</v>
+        <v>24.09867173</v>
       </c>
       <c r="L96" s="2">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="M96" s="2">
         <v>35</v>
@@ -5316,7 +5320,7 @@
         <v>2792</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F97" s="2">
         <v>353</v>
@@ -5331,13 +5335,13 @@
         <v>16.79799427</v>
       </c>
       <c r="J97" s="2">
-        <v>723</v>
+        <v>803</v>
       </c>
       <c r="K97" s="2">
-        <v>25.89541547</v>
+        <v>28.760744989999999</v>
       </c>
       <c r="L97" s="2">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="M97" s="2">
         <v>116</v>
@@ -5366,7 +5370,7 @@
         <v>2139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F98" s="2">
         <v>333</v>
@@ -5380,14 +5384,14 @@
       <c r="I98" s="2">
         <v>21.972884530000002</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K98" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L98" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J98" s="2">
+        <v>810</v>
+      </c>
+      <c r="K98" s="2">
+        <v>37.868162689999998</v>
+      </c>
+      <c r="L98" s="2">
+        <v>340</v>
       </c>
       <c r="M98" s="2">
         <v>137</v>
@@ -5416,7 +5420,7 @@
         <v>1360</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F99" s="2">
         <v>495</v>
@@ -5431,13 +5435,13 @@
         <v>49.117647060000003</v>
       </c>
       <c r="J99" s="2">
-        <v>528</v>
+        <v>485</v>
       </c>
       <c r="K99" s="2">
-        <v>38.823529409999999</v>
+        <v>35.66176471</v>
       </c>
       <c r="L99" s="2">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="M99" s="2">
         <v>173</v>
@@ -5466,7 +5470,7 @@
         <v>1360</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F100" s="2">
         <v>450</v>
@@ -5480,14 +5484,14 @@
       <c r="I100" s="2">
         <v>44.264705880000001</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L100" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J100" s="2">
+        <v>512</v>
+      </c>
+      <c r="K100" s="2">
+        <v>37.647058819999998</v>
+      </c>
+      <c r="L100" s="2">
+        <v>90</v>
       </c>
       <c r="M100" s="2">
         <v>150</v>
@@ -5516,7 +5520,7 @@
         <v>2442</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F101" s="2">
         <v>314</v>
@@ -5531,13 +5535,13 @@
         <v>20.39312039</v>
       </c>
       <c r="J101" s="2">
-        <v>626</v>
+        <v>841</v>
       </c>
       <c r="K101" s="2">
-        <v>25.634725629999998</v>
+        <v>34.438984439999999</v>
       </c>
       <c r="L101" s="2">
-        <v>128</v>
+        <v>343</v>
       </c>
       <c r="M101" s="2">
         <v>184</v>
@@ -5566,7 +5570,7 @@
         <v>1923</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F102" s="2">
         <v>7</v>
@@ -5581,13 +5585,13 @@
         <v>5.6682267289999997</v>
       </c>
       <c r="J102" s="2">
-        <v>476</v>
+        <v>878</v>
       </c>
       <c r="K102" s="2">
-        <v>24.75299012</v>
+        <v>45.657826309999997</v>
       </c>
       <c r="L102" s="2">
-        <v>367</v>
+        <v>769</v>
       </c>
       <c r="M102" s="2">
         <v>244</v>
@@ -5616,7 +5620,7 @@
         <v>1587</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F103" s="2">
         <v>334</v>
@@ -5666,7 +5670,7 @@
         <v>1440</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F104" s="2">
         <v>419</v>
@@ -5716,7 +5720,7 @@
         <v>1880</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F105" s="2">
         <v>250</v>
@@ -5766,7 +5770,7 @@
         <v>1233</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F106" s="2">
         <v>213</v>
@@ -5816,7 +5820,7 @@
         <v>1491</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F107" s="2">
         <v>281</v>
@@ -5866,7 +5870,7 @@
         <v>1439</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F108" s="2">
         <v>311</v>
@@ -5916,7 +5920,7 @@
         <v>1455</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F109" s="2">
         <v>251</v>
@@ -5966,7 +5970,7 @@
         <v>1719</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F110" s="2">
         <v>251</v>
@@ -6016,7 +6020,7 @@
         <v>1813</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F111" s="2">
         <v>326</v>
@@ -6066,7 +6070,7 @@
         <v>1737</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F112" s="2">
         <v>291</v>
@@ -6116,7 +6120,7 @@
         <v>1447</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F113" s="2">
         <v>325</v>
@@ -6166,7 +6170,7 @@
         <v>1547</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F114" s="2">
         <v>215</v>
@@ -6216,7 +6220,7 @@
         <v>1516</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F115" s="2">
         <v>658</v>
@@ -6266,7 +6270,7 @@
         <v>1758</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F116" s="2">
         <v>475</v>
@@ -6316,7 +6320,7 @@
         <v>1605</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F117" s="2">
         <v>519</v>
@@ -6363,10 +6367,10 @@
         <v>109</v>
       </c>
       <c r="D118" s="2">
-        <v>1825</v>
+        <v>1879</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F118" s="2">
         <v>356</v>
@@ -6378,13 +6382,13 @@
         <v>579</v>
       </c>
       <c r="I118" s="2">
-        <v>31.7260274</v>
+        <v>30.81426291</v>
       </c>
       <c r="J118" s="2">
         <v>627</v>
       </c>
       <c r="K118" s="2">
-        <v>34.356164380000003</v>
+        <v>33.368813199999998</v>
       </c>
       <c r="L118" s="2">
         <v>48</v>
@@ -6413,10 +6417,10 @@
         <v>109</v>
       </c>
       <c r="D119" s="2">
-        <v>1662</v>
+        <v>1530</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F119" s="2">
         <v>482</v>
@@ -6428,13 +6432,13 @@
         <v>577</v>
       </c>
       <c r="I119" s="2">
-        <v>34.71720818</v>
+        <v>37.712418300000003</v>
       </c>
       <c r="J119" s="2">
         <v>661</v>
       </c>
       <c r="K119" s="2">
-        <v>39.77135981</v>
+        <v>43.20261438</v>
       </c>
       <c r="L119" s="2">
         <v>84</v>
@@ -6466,7 +6470,7 @@
         <v>1597</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F120" s="2">
         <v>380</v>
@@ -6516,7 +6520,7 @@
         <v>1257</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F121" s="2">
         <v>569</v>
@@ -6566,7 +6570,7 @@
         <v>1377</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F122" s="2">
         <v>488</v>
@@ -6581,13 +6585,13 @@
         <v>37.618010169999998</v>
       </c>
       <c r="J122" s="2">
-        <v>1377</v>
+        <v>1226</v>
       </c>
       <c r="K122" s="2">
-        <v>100</v>
+        <v>89.034132170000007</v>
       </c>
       <c r="L122" s="2">
-        <v>859</v>
+        <v>708</v>
       </c>
       <c r="M122" s="2">
         <v>30</v>
@@ -6616,7 +6620,7 @@
         <v>2420</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F123" s="2">
         <v>227</v>
@@ -6630,14 +6634,14 @@
       <c r="I123" s="2">
         <v>17.39669421</v>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K123" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L123" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J123" s="2">
+        <v>867</v>
+      </c>
+      <c r="K123" s="2">
+        <v>35.826446279999999</v>
+      </c>
+      <c r="L123" s="2">
+        <v>446</v>
       </c>
       <c r="M123" s="2">
         <v>184</v>
@@ -6666,7 +6670,7 @@
         <v>2065</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F124" s="2">
         <v>267</v>
@@ -6680,14 +6684,14 @@
       <c r="I124" s="2">
         <v>38.401937050000001</v>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K124" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L124" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J124" s="2">
+        <v>907</v>
+      </c>
+      <c r="K124" s="2">
+        <v>43.922518160000003</v>
+      </c>
+      <c r="L124" s="2">
+        <v>114</v>
       </c>
       <c r="M124" s="2">
         <v>161</v>
@@ -6716,7 +6720,7 @@
         <v>2363</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F125" s="2">
         <v>472</v>
@@ -6730,14 +6734,14 @@
       <c r="I125" s="2">
         <v>30.554380030000001</v>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K125" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L125" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J125" s="2">
+        <v>1030</v>
+      </c>
+      <c r="K125" s="2">
+        <v>43.588658479999999</v>
+      </c>
+      <c r="L125" s="2">
+        <v>308</v>
       </c>
       <c r="M125" s="2">
         <v>295</v>
@@ -6763,10 +6767,10 @@
         <v>110</v>
       </c>
       <c r="D126" s="2">
-        <v>2083</v>
+        <v>2038</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F126" s="2">
         <v>442</v>
@@ -6778,16 +6782,16 @@
         <v>992</v>
       </c>
       <c r="I126" s="2">
-        <v>47.623619779999999</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K126" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L126" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>48.675171740000003</v>
+      </c>
+      <c r="J126" s="2">
+        <v>710</v>
+      </c>
+      <c r="K126" s="2">
+        <v>34.838076549999997</v>
+      </c>
+      <c r="L126" s="2">
+        <v>282</v>
       </c>
       <c r="M126" s="2">
         <v>151</v>
@@ -6816,7 +6820,7 @@
         <v>2309</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F127" s="2">
         <v>198</v>
@@ -6830,14 +6834,14 @@
       <c r="I127" s="2">
         <v>22.43395409</v>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K127" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L127" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J127" s="2">
+        <v>875</v>
+      </c>
+      <c r="K127" s="2">
+        <v>37.895192719999997</v>
+      </c>
+      <c r="L127" s="2">
+        <v>357</v>
       </c>
       <c r="M127" s="2">
         <v>158</v>
@@ -6863,10 +6867,10 @@
         <v>110</v>
       </c>
       <c r="D128" s="2">
-        <v>1889</v>
+        <v>1858</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F128" s="2">
         <v>225</v>
@@ -6878,16 +6882,16 @@
         <v>613</v>
       </c>
       <c r="I128" s="2">
-        <v>32.451032290000001</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K128" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L128" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>32.992465019999997</v>
+      </c>
+      <c r="J128" s="2">
+        <v>589</v>
+      </c>
+      <c r="K128" s="2">
+        <v>31.700753500000001</v>
+      </c>
+      <c r="L128" s="2">
+        <v>24</v>
       </c>
       <c r="M128" s="2">
         <v>183</v>
@@ -6916,7 +6920,7 @@
         <v>1650</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F129" s="2">
         <v>255</v>
@@ -6930,14 +6934,14 @@
       <c r="I129" s="2">
         <v>24.90909091</v>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K129" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L129" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J129" s="2">
+        <v>604</v>
+      </c>
+      <c r="K129" s="2">
+        <v>36.60606061</v>
+      </c>
+      <c r="L129" s="2">
+        <v>193</v>
       </c>
       <c r="M129" s="2">
         <v>121</v>
@@ -6966,7 +6970,7 @@
         <v>1619</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F130" s="2">
         <v>191</v>
@@ -6980,14 +6984,14 @@
       <c r="I130" s="2">
         <v>21.988882029999999</v>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K130" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L130" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J130" s="2">
+        <v>649</v>
+      </c>
+      <c r="K130" s="2">
+        <v>40.086473130000002</v>
+      </c>
+      <c r="L130" s="2">
+        <v>293</v>
       </c>
       <c r="M130" s="2">
         <v>200</v>
@@ -7016,7 +7020,7 @@
         <v>2966</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F131" s="2">
         <v>217</v>
@@ -7030,14 +7034,14 @@
       <c r="I131" s="2">
         <v>12.440997980000001</v>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K131" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L131" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J131" s="2">
+        <v>1246</v>
+      </c>
+      <c r="K131" s="2">
+        <v>42.009440320000003</v>
+      </c>
+      <c r="L131" s="2">
+        <v>877</v>
       </c>
       <c r="M131" s="2">
         <v>408</v>
@@ -7066,7 +7070,7 @@
         <v>2877</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F132" s="2">
         <v>115</v>
@@ -7080,14 +7084,14 @@
       <c r="I132" s="2">
         <v>20.889815779999999</v>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K132" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L132" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J132" s="2">
+        <v>629</v>
+      </c>
+      <c r="K132" s="2">
+        <v>21.86305179</v>
+      </c>
+      <c r="L132" s="2">
+        <v>28</v>
       </c>
       <c r="M132" s="2">
         <v>115</v>
@@ -7113,10 +7117,10 @@
         <v>110</v>
       </c>
       <c r="D133" s="2">
-        <v>2770</v>
+        <v>2256</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F133" s="2">
         <v>375</v>
@@ -7128,16 +7132,16 @@
         <v>797</v>
       </c>
       <c r="I133" s="2">
-        <v>28.772563179999999</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K133" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L133" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>35.328014179999997</v>
+      </c>
+      <c r="J133" s="2">
+        <v>851</v>
+      </c>
+      <c r="K133" s="2">
+        <v>37.721631209999998</v>
+      </c>
+      <c r="L133" s="2">
+        <v>54</v>
       </c>
       <c r="M133" s="2">
         <v>200</v>
@@ -7166,7 +7170,7 @@
         <v>1972</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F134" s="2">
         <v>315</v>
@@ -7180,14 +7184,14 @@
       <c r="I134" s="2">
         <v>54.056795129999998</v>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K134" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L134" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J134" s="2">
+        <v>663</v>
+      </c>
+      <c r="K134" s="2">
+        <v>33.620689659999996</v>
+      </c>
+      <c r="L134" s="2">
+        <v>403</v>
       </c>
       <c r="M134" s="2">
         <v>105</v>
@@ -7216,7 +7220,7 @@
         <v>2192</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F135" s="2">
         <v>387</v>
@@ -7230,14 +7234,14 @@
       <c r="I135" s="2">
         <v>38.549270069999999</v>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K135" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L135" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J135" s="2">
+        <v>853</v>
+      </c>
+      <c r="K135" s="2">
+        <v>38.914233580000001</v>
+      </c>
+      <c r="L135" s="2">
+        <v>8</v>
       </c>
       <c r="M135" s="2">
         <v>95</v>
@@ -7266,7 +7270,7 @@
         <v>2044</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F136" s="2">
         <v>212</v>
@@ -7280,14 +7284,14 @@
       <c r="I136" s="2">
         <v>34.00195695</v>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K136" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L136" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J136" s="2">
+        <v>608</v>
+      </c>
+      <c r="K136" s="2">
+        <v>29.74559687</v>
+      </c>
+      <c r="L136" s="2">
+        <v>87</v>
       </c>
       <c r="M136" s="2">
         <v>26</v>
@@ -7316,7 +7320,7 @@
         <v>2228</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F137" s="2">
         <v>225</v>
@@ -7330,14 +7334,14 @@
       <c r="I137" s="2">
         <v>24.596050269999999</v>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K137" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L137" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J137" s="2">
+        <v>894</v>
+      </c>
+      <c r="K137" s="2">
+        <v>40.125673249999998</v>
+      </c>
+      <c r="L137" s="2">
+        <v>346</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>16</v>
@@ -7366,7 +7370,7 @@
         <v>1902</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F138" s="2">
         <v>129</v>
@@ -7380,14 +7384,14 @@
       <c r="I138" s="2">
         <v>24.237644580000001</v>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K138" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L138" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J138" s="2">
+        <v>818</v>
+      </c>
+      <c r="K138" s="2">
+        <v>43.007360669999997</v>
+      </c>
+      <c r="L138" s="2">
+        <v>357</v>
       </c>
       <c r="M138" s="2">
         <v>18</v>
@@ -7416,7 +7420,7 @@
         <v>2205</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F139" s="2">
         <v>87</v>
@@ -7430,14 +7434,14 @@
       <c r="I139" s="2">
         <v>18.82086168</v>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K139" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L139" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J139" s="2">
+        <v>960</v>
+      </c>
+      <c r="K139" s="2">
+        <v>43.53741497</v>
+      </c>
+      <c r="L139" s="2">
+        <v>545</v>
       </c>
       <c r="M139" s="2">
         <v>20</v>
@@ -7466,7 +7470,7 @@
         <v>1912</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F140" s="2">
         <v>18</v>
@@ -7480,14 +7484,14 @@
       <c r="I140" s="2">
         <v>18.880753139999999</v>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K140" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L140" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J140" s="2">
+        <v>663</v>
+      </c>
+      <c r="K140" s="2">
+        <v>34.67573222</v>
+      </c>
+      <c r="L140" s="2">
+        <v>302</v>
       </c>
       <c r="M140" s="2">
         <v>23</v>
@@ -7516,7 +7520,7 @@
         <v>1731</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F141" s="2">
         <v>47</v>
@@ -7530,14 +7534,14 @@
       <c r="I141" s="2">
         <v>19.468515310000001</v>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K141" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L141" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J141" s="2">
+        <v>551</v>
+      </c>
+      <c r="K141" s="2">
+        <v>31.831311379999999</v>
+      </c>
+      <c r="L141" s="2">
+        <v>214</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>16</v>
@@ -7566,7 +7570,7 @@
         <v>1719</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F142" s="2">
         <v>25</v>
@@ -7580,14 +7584,14 @@
       <c r="I142" s="2">
         <v>16.986620129999999</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K142" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L142" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J142" s="2">
+        <v>665</v>
+      </c>
+      <c r="K142" s="2">
+        <v>38.685282139999998</v>
+      </c>
+      <c r="L142" s="2">
+        <v>373</v>
       </c>
       <c r="M142" s="2">
         <v>25</v>
@@ -7616,7 +7620,7 @@
         <v>1348</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F143" s="2">
         <v>90</v>
@@ -7630,14 +7634,14 @@
       <c r="I143" s="2">
         <v>25.741839760000001</v>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K143" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L143" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J143" s="2">
+        <v>496</v>
+      </c>
+      <c r="K143" s="2">
+        <v>36.795252230000003</v>
+      </c>
+      <c r="L143" s="2">
+        <v>149</v>
       </c>
       <c r="M143" s="2">
         <v>23</v>
@@ -7666,7 +7670,7 @@
         <v>2017</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F144" s="2">
         <v>133</v>
@@ -7680,14 +7684,14 @@
       <c r="I144" s="2">
         <v>13.733267229999999</v>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K144" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L144" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J144" s="2">
+        <v>691</v>
+      </c>
+      <c r="K144" s="2">
+        <v>34.258800200000003</v>
+      </c>
+      <c r="L144" s="2">
+        <v>414</v>
       </c>
       <c r="M144" s="2">
         <v>13</v>
@@ -7716,7 +7720,7 @@
         <v>2658</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F145" s="2">
         <v>18</v>
@@ -7730,14 +7734,14 @@
       <c r="I145" s="2">
         <v>13.544018060000001</v>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K145" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L145" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J145" s="2">
+        <v>952</v>
+      </c>
+      <c r="K145" s="2">
+        <v>35.816403309999998</v>
+      </c>
+      <c r="L145" s="2">
+        <v>592</v>
       </c>
       <c r="M145" s="2">
         <v>241</v>
@@ -7766,7 +7770,7 @@
         <v>2672</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F146" s="2">
         <v>17</v>
@@ -7780,14 +7784,14 @@
       <c r="I146" s="2">
         <v>16.878742509999999</v>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K146" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L146" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J146" s="2">
+        <v>1019</v>
+      </c>
+      <c r="K146" s="2">
+        <v>38.13622754</v>
+      </c>
+      <c r="L146" s="2">
+        <v>568</v>
       </c>
       <c r="M146" s="2">
         <v>360</v>
@@ -7816,7 +7820,7 @@
         <v>2183</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F147" s="2">
         <v>10</v>
@@ -7830,14 +7834,14 @@
       <c r="I147" s="2">
         <v>21.209344940000001</v>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K147" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L147" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J147" s="2">
+        <v>946</v>
+      </c>
+      <c r="K147" s="2">
+        <v>43.334860280000001</v>
+      </c>
+      <c r="L147" s="2">
+        <v>483</v>
       </c>
       <c r="M147" s="2">
         <v>254</v>
@@ -7866,7 +7870,7 @@
         <v>2348</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F148" s="2">
         <v>6</v>
@@ -7880,14 +7884,14 @@
       <c r="I148" s="2">
         <v>14.43781942</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K148" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L148" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J148" s="2">
+        <v>914</v>
+      </c>
+      <c r="K148" s="2">
+        <v>38.926746170000001</v>
+      </c>
+      <c r="L148" s="2">
+        <v>575</v>
       </c>
       <c r="M148" s="2">
         <v>27</v>
@@ -7916,7 +7920,7 @@
         <v>2131</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F149" s="2">
         <v>58</v>
@@ -7930,14 +7934,14 @@
       <c r="I149" s="2">
         <v>17.7381511</v>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K149" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L149" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J149" s="2">
+        <v>796</v>
+      </c>
+      <c r="K149" s="2">
+        <v>37.353355229999998</v>
+      </c>
+      <c r="L149" s="2">
+        <v>418</v>
       </c>
       <c r="M149" s="2">
         <v>46</v>
@@ -7966,7 +7970,7 @@
         <v>2518</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F150" s="2">
         <v>250</v>
@@ -7980,14 +7984,14 @@
       <c r="I150" s="2">
         <v>30.301826850000001</v>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K150" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L150" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J150" s="2">
+        <v>932</v>
+      </c>
+      <c r="K150" s="2">
+        <v>37.013502780000003</v>
+      </c>
+      <c r="L150" s="2">
+        <v>169</v>
       </c>
       <c r="M150" s="2">
         <v>23</v>
@@ -8016,7 +8020,7 @@
         <v>2024</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F151" s="2">
         <v>123</v>
@@ -8030,14 +8034,14 @@
       <c r="I151" s="2">
         <v>36.264822129999999</v>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K151" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L151" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J151" s="2">
+        <v>600</v>
+      </c>
+      <c r="K151" s="2">
+        <v>29.64426877</v>
+      </c>
+      <c r="L151" s="2">
+        <v>134</v>
       </c>
       <c r="M151" s="2" t="s">
         <v>16</v>
@@ -8063,10 +8067,10 @@
         <v>110</v>
       </c>
       <c r="D152" s="2">
-        <v>377</v>
+        <v>1139</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F152" s="2">
         <v>0</v>
@@ -8078,16 +8082,16 @@
         <v>503</v>
       </c>
       <c r="I152" s="2">
-        <v>133.42175069999999</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K152" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L152" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>44.161545220000001</v>
+      </c>
+      <c r="J152" s="2">
+        <v>377</v>
+      </c>
+      <c r="K152" s="2">
+        <v>33.099209829999999</v>
+      </c>
+      <c r="L152" s="2">
+        <v>126</v>
       </c>
       <c r="M152" s="2" t="s">
         <v>16</v>
@@ -8116,7 +8120,7 @@
         <v>1382</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F153" s="2">
         <v>14</v>
@@ -8130,14 +8134,14 @@
       <c r="I153" s="2">
         <v>21.70767004</v>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K153" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L153" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J153" s="2">
+        <v>522</v>
+      </c>
+      <c r="K153" s="2">
+        <v>37.771345879999998</v>
+      </c>
+      <c r="L153" s="2">
+        <v>222</v>
       </c>
       <c r="M153" s="2">
         <v>20</v>
@@ -8166,7 +8170,7 @@
         <v>2627</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F154" s="2">
         <v>6</v>
@@ -8180,14 +8184,14 @@
       <c r="I154" s="2">
         <v>7.3848496380000004</v>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K154" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L154" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J154" s="2">
+        <v>1090</v>
+      </c>
+      <c r="K154" s="2">
+        <v>41.492196419999999</v>
+      </c>
+      <c r="L154" s="2">
+        <v>896</v>
       </c>
       <c r="M154" s="2">
         <v>286</v>
@@ -8216,7 +8220,7 @@
         <v>2062</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F155" s="2">
         <v>3</v>
@@ -8230,14 +8234,14 @@
       <c r="I155" s="2">
         <v>19.544131910000001</v>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K155" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L155" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J155" s="2">
+        <v>888</v>
+      </c>
+      <c r="K155" s="2">
+        <v>43.064985450000002</v>
+      </c>
+      <c r="L155" s="2">
+        <v>485</v>
       </c>
       <c r="M155" s="2">
         <v>253</v>
@@ -8266,7 +8270,7 @@
         <v>2413</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F156" s="2">
         <v>26</v>
@@ -8280,26 +8284,26 @@
       <c r="I156" s="2">
         <v>15.08495649</v>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K156" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L156" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P156" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J156" s="2">
+        <v>907</v>
+      </c>
+      <c r="K156" s="2">
+        <v>37.58806465</v>
+      </c>
+      <c r="L156" s="2">
+        <v>543</v>
+      </c>
+      <c r="M156" s="2">
+        <v>18</v>
+      </c>
+      <c r="N156" s="2">
+        <v>408</v>
+      </c>
+      <c r="O156" s="2">
+        <v>527</v>
+      </c>
+      <c r="P156" s="2">
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
@@ -8316,7 +8320,7 @@
         <v>2222</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F157" s="2">
         <v>9</v>
@@ -8330,14 +8334,14 @@
       <c r="I157" s="2">
         <v>18.271827179999999</v>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K157" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L157" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J157" s="2">
+        <v>721</v>
+      </c>
+      <c r="K157" s="2">
+        <v>32.448244819999999</v>
+      </c>
+      <c r="L157" s="2">
+        <v>315</v>
       </c>
       <c r="M157" s="2">
         <v>46</v>
@@ -8363,10 +8367,10 @@
         <v>110</v>
       </c>
       <c r="D158" s="2">
-        <v>2090</v>
+        <v>2152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F158" s="2">
         <v>9</v>
@@ -8378,16 +8382,16 @@
         <v>462</v>
       </c>
       <c r="I158" s="2">
-        <v>22.10526316</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K158" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L158" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>21.468401490000002</v>
+      </c>
+      <c r="J158" s="2">
+        <v>587</v>
+      </c>
+      <c r="K158" s="2">
+        <v>27.276951669999999</v>
+      </c>
+      <c r="L158" s="2">
+        <v>125</v>
       </c>
       <c r="M158" s="2">
         <v>24</v>
@@ -8416,7 +8420,7 @@
         <v>2094</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F159" s="2">
         <v>26</v>
@@ -8430,14 +8434,14 @@
       <c r="I159" s="2">
         <v>20.82139446</v>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K159" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L159" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J159" s="2">
+        <v>577</v>
+      </c>
+      <c r="K159" s="2">
+        <v>27.554918820000001</v>
+      </c>
+      <c r="L159" s="2">
+        <v>141</v>
       </c>
       <c r="M159" s="2">
         <v>19</v>
@@ -8466,7 +8470,7 @@
         <v>2687</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F160" s="2">
         <v>11</v>
@@ -8480,14 +8484,14 @@
       <c r="I160" s="2">
         <v>14.55154447</v>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K160" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L160" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J160" s="2">
+        <v>794</v>
+      </c>
+      <c r="K160" s="2">
+        <v>29.549683659999999</v>
+      </c>
+      <c r="L160" s="2">
+        <v>403</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>16</v>
@@ -8516,7 +8520,7 @@
         <v>2052</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F161" s="2">
         <v>128</v>
@@ -8530,14 +8534,14 @@
       <c r="I161" s="2">
         <v>33.625730990000001</v>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K161" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L161" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J161" s="2">
+        <v>558</v>
+      </c>
+      <c r="K161" s="2">
+        <v>27.19298246</v>
+      </c>
+      <c r="L161" s="2">
+        <v>132</v>
       </c>
       <c r="M161" s="2">
         <v>128</v>
@@ -8566,7 +8570,7 @@
         <v>1445</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F162" s="2">
         <v>166</v>
@@ -8580,14 +8584,14 @@
       <c r="I162" s="2">
         <v>29.757785470000002</v>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K162" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L162" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J162" s="2">
+        <v>432</v>
+      </c>
+      <c r="K162" s="2">
+        <v>29.89619377</v>
+      </c>
+      <c r="L162" s="2">
+        <v>2</v>
       </c>
       <c r="M162" s="2">
         <v>34</v>
@@ -8613,10 +8617,10 @@
         <v>110</v>
       </c>
       <c r="D163" s="2">
-        <v>3304</v>
+        <v>2584</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F163" s="2">
         <v>10</v>
@@ -8628,16 +8632,16 @@
         <v>263</v>
       </c>
       <c r="I163" s="2">
-        <v>7.9600484260000002</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K163" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L163" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>10.17801858</v>
+      </c>
+      <c r="J163" s="2">
+        <v>896</v>
+      </c>
+      <c r="K163" s="2">
+        <v>34.674922600000002</v>
+      </c>
+      <c r="L163" s="2">
+        <v>633</v>
       </c>
       <c r="M163" s="2" t="s">
         <v>16</v>
@@ -8663,10 +8667,10 @@
         <v>110</v>
       </c>
       <c r="D164" s="2">
-        <v>2095</v>
+        <v>2237</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F164" s="2">
         <v>29</v>
@@ -8678,16 +8682,16 @@
         <v>440</v>
       </c>
       <c r="I164" s="2">
-        <v>21.00238663</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K164" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L164" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>19.669199819999999</v>
+      </c>
+      <c r="J164" s="2">
+        <v>646</v>
+      </c>
+      <c r="K164" s="2">
+        <v>28.877961559999999</v>
+      </c>
+      <c r="L164" s="2">
+        <v>206</v>
       </c>
       <c r="M164" s="2">
         <v>29</v>
@@ -8716,7 +8720,7 @@
         <v>1855</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F165" s="2">
         <v>16</v>
@@ -8730,14 +8734,14 @@
       <c r="I165" s="2">
         <v>23.935309969999999</v>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K165" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L165" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J165" s="2">
+        <v>559</v>
+      </c>
+      <c r="K165" s="2">
+        <v>30.134770889999999</v>
+      </c>
+      <c r="L165" s="2">
+        <v>115</v>
       </c>
       <c r="M165" s="2">
         <v>36</v>
@@ -8766,7 +8770,7 @@
         <v>2558</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F166" s="2">
         <v>8</v>
@@ -8780,14 +8784,14 @@
       <c r="I166" s="2">
         <v>21.383893669999999</v>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K166" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L166" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J166" s="2">
+        <v>773</v>
+      </c>
+      <c r="K166" s="2">
+        <v>30.218921030000001</v>
+      </c>
+      <c r="L166" s="2">
+        <v>226</v>
       </c>
       <c r="M166" s="2">
         <v>44</v>
@@ -8816,7 +8820,7 @@
         <v>1444</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F167" s="2">
         <v>16</v>
@@ -8830,14 +8834,14 @@
       <c r="I167" s="2">
         <v>34.418282550000001</v>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K167" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L167" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J167" s="2">
+        <v>517</v>
+      </c>
+      <c r="K167" s="2">
+        <v>35.803324099999998</v>
+      </c>
+      <c r="L167" s="2">
+        <v>20</v>
       </c>
       <c r="M167" s="2">
         <v>50</v>
@@ -8866,7 +8870,7 @@
         <v>1312</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F168" s="2">
         <v>16</v>
@@ -8880,14 +8884,14 @@
       <c r="I168" s="2">
         <v>25.914634150000001</v>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K168" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L168" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J168" s="2">
+        <v>520</v>
+      </c>
+      <c r="K168" s="2">
+        <v>39.634146340000001</v>
+      </c>
+      <c r="L168" s="2">
+        <v>180</v>
       </c>
       <c r="M168" s="2">
         <v>37</v>
@@ -8916,7 +8920,7 @@
         <v>2400</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F169" s="2">
         <v>5</v>
@@ -8930,14 +8934,14 @@
       <c r="I169" s="2">
         <v>14</v>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K169" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L169" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J169" s="2">
+        <v>716</v>
+      </c>
+      <c r="K169" s="2">
+        <v>29.833333329999999</v>
+      </c>
+      <c r="L169" s="2">
+        <v>380</v>
       </c>
       <c r="M169" s="2">
         <v>43</v>
@@ -8966,7 +8970,7 @@
         <v>2296</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F170" s="2">
         <v>10</v>
@@ -8980,14 +8984,14 @@
       <c r="I170" s="2">
         <v>19.686411150000001</v>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K170" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L170" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J170" s="2">
+        <v>723</v>
+      </c>
+      <c r="K170" s="2">
+        <v>31.489547040000001</v>
+      </c>
+      <c r="L170" s="2">
+        <v>271</v>
       </c>
       <c r="M170" s="2">
         <v>84</v>
@@ -9016,7 +9020,7 @@
         <v>1727</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F171" s="2">
         <v>7</v>
@@ -9030,14 +9034,14 @@
       <c r="I171" s="2">
         <v>26.809496240000001</v>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K171" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L171" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J171" s="2">
+        <v>632</v>
+      </c>
+      <c r="K171" s="2">
+        <v>36.595251879999999</v>
+      </c>
+      <c r="L171" s="2">
+        <v>169</v>
       </c>
       <c r="M171" s="2">
         <v>20</v>
@@ -9066,7 +9070,7 @@
         <v>2151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F172" s="2">
         <v>15</v>
@@ -9080,14 +9084,14 @@
       <c r="I172" s="2">
         <v>18.31706183</v>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K172" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L172" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J172" s="2">
+        <v>609</v>
+      </c>
+      <c r="K172" s="2">
+        <v>28.31241283</v>
+      </c>
+      <c r="L172" s="2">
+        <v>215</v>
       </c>
       <c r="M172" s="2">
         <v>29</v>
@@ -9116,7 +9120,7 @@
         <v>1595</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F173" s="2">
         <v>25</v>
@@ -9130,14 +9134,14 @@
       <c r="I173" s="2">
         <v>37.742946709999998</v>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K173" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L173" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J173" s="2">
+        <v>460</v>
+      </c>
+      <c r="K173" s="2">
+        <v>28.840125390000001</v>
+      </c>
+      <c r="L173" s="2">
+        <v>142</v>
       </c>
       <c r="M173" s="2" t="s">
         <v>16</v>
@@ -9166,7 +9170,7 @@
         <v>1718</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F174" s="2">
         <v>13</v>
@@ -9180,14 +9184,14 @@
       <c r="I174" s="2">
         <v>17.753201399999998</v>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K174" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L174" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J174" s="2">
+        <v>612</v>
+      </c>
+      <c r="K174" s="2">
+        <v>35.622817230000003</v>
+      </c>
+      <c r="L174" s="2">
+        <v>307</v>
       </c>
       <c r="M174" s="2">
         <v>20</v>
@@ -9216,7 +9220,7 @@
         <v>1912</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F175" s="2">
         <v>170</v>
@@ -9230,14 +9234,14 @@
       <c r="I175" s="2">
         <v>31.014644350000001</v>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K175" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L175" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J175" s="2">
+        <v>835</v>
+      </c>
+      <c r="K175" s="2">
+        <v>43.671548119999997</v>
+      </c>
+      <c r="L175" s="2">
+        <v>242</v>
       </c>
       <c r="M175" s="2">
         <v>17</v>
@@ -9266,7 +9270,7 @@
         <v>2552</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F176" s="2">
         <v>19</v>
@@ -9280,14 +9284,14 @@
       <c r="I176" s="2">
         <v>5.9169279000000001</v>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K176" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L176" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J176" s="2">
+        <v>1060</v>
+      </c>
+      <c r="K176" s="2">
+        <v>41.536050160000002</v>
+      </c>
+      <c r="L176" s="2">
+        <v>909</v>
       </c>
       <c r="M176" s="2" t="s">
         <v>16</v>
@@ -9316,7 +9320,7 @@
         <v>2335</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F177" s="2">
         <v>11</v>
@@ -9330,14 +9334,14 @@
       <c r="I177" s="2">
         <v>13.319057819999999</v>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K177" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L177" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J177" s="2">
+        <v>754</v>
+      </c>
+      <c r="K177" s="2">
+        <v>32.291220559999999</v>
+      </c>
+      <c r="L177" s="2">
+        <v>443</v>
       </c>
       <c r="M177" s="2">
         <v>46</v>
@@ -9366,7 +9370,7 @@
         <v>1343</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F178" s="2">
         <v>9</v>
@@ -9380,14 +9384,14 @@
       <c r="I178" s="2">
         <v>37.751303049999997</v>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K178" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L178" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J178" s="2">
+        <v>479</v>
+      </c>
+      <c r="K178" s="2">
+        <v>35.666418470000004</v>
+      </c>
+      <c r="L178" s="2">
+        <v>28</v>
       </c>
       <c r="M178" s="2">
         <v>18</v>
@@ -9416,7 +9420,7 @@
         <v>2343</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F179" s="2">
         <v>5</v>
@@ -9430,14 +9434,14 @@
       <c r="I179" s="2">
         <v>13.99914639</v>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K179" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L179" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J179" s="2">
+        <v>769</v>
+      </c>
+      <c r="K179" s="2">
+        <v>32.821169439999998</v>
+      </c>
+      <c r="L179" s="2">
+        <v>441</v>
       </c>
       <c r="M179" s="2">
         <v>15</v>
@@ -9466,7 +9470,7 @@
         <v>2713</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F180" s="2">
         <v>13</v>
@@ -9480,14 +9484,14 @@
       <c r="I180" s="2">
         <v>7.8879469220000002</v>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K180" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L180" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J180" s="2">
+        <v>752</v>
+      </c>
+      <c r="K180" s="2">
+        <v>27.718392919999999</v>
+      </c>
+      <c r="L180" s="2">
+        <v>538</v>
       </c>
       <c r="M180" s="2">
         <v>25</v>
@@ -9516,7 +9520,7 @@
         <v>1302</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F181" s="2">
         <v>7</v>
@@ -9530,14 +9534,14 @@
       <c r="I181" s="2">
         <v>40.70660522</v>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K181" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L181" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J181" s="2">
+        <v>533</v>
+      </c>
+      <c r="K181" s="2">
+        <v>40.937019970000001</v>
+      </c>
+      <c r="L181" s="2">
+        <v>3</v>
       </c>
       <c r="M181" s="2">
         <v>17</v>
@@ -9566,7 +9570,7 @@
         <v>1865</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
@@ -9580,14 +9584,14 @@
       <c r="I182" s="2">
         <v>23.753351210000002</v>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K182" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L182" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J182" s="2">
+        <v>538</v>
+      </c>
+      <c r="K182" s="2">
+        <v>28.847184989999999</v>
+      </c>
+      <c r="L182" s="2">
+        <v>95</v>
       </c>
       <c r="M182" s="2">
         <v>0</v>
@@ -9616,7 +9620,7 @@
         <v>1498</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F183" s="2">
         <v>15</v>
@@ -9630,14 +9634,14 @@
       <c r="I183" s="2">
         <v>33.64485981</v>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K183" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L183" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J183" s="2">
+        <v>578</v>
+      </c>
+      <c r="K183" s="2">
+        <v>38.584779709999999</v>
+      </c>
+      <c r="L183" s="2">
+        <v>74</v>
       </c>
       <c r="M183" s="2">
         <v>35</v>
@@ -9663,10 +9667,10 @@
         <v>110</v>
       </c>
       <c r="D184" s="2">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F184" s="2">
         <v>11</v>
@@ -9678,16 +9682,16 @@
         <v>419</v>
       </c>
       <c r="I184" s="2">
-        <v>28.349120429999999</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K184" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L184" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>28.291694799999998</v>
+      </c>
+      <c r="J184" s="2">
+        <v>471</v>
+      </c>
+      <c r="K184" s="2">
+        <v>31.80283592</v>
+      </c>
+      <c r="L184" s="2">
+        <v>52</v>
       </c>
       <c r="M184" s="2">
         <v>19</v>
@@ -9716,7 +9720,7 @@
         <v>1257</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F185" s="2">
         <v>4</v>
@@ -9730,14 +9734,14 @@
       <c r="I185" s="2">
         <v>31.424025459999999</v>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K185" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L185" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J185" s="2">
+        <v>455</v>
+      </c>
+      <c r="K185" s="2">
+        <v>36.197295150000002</v>
+      </c>
+      <c r="L185" s="2">
+        <v>60</v>
       </c>
       <c r="M185" s="2">
         <v>19</v>
@@ -9766,7 +9770,7 @@
         <v>1705</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F186" s="2">
         <v>7</v>
@@ -9780,14 +9784,14 @@
       <c r="I186" s="2">
         <v>6.6275659820000001</v>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K186" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L186" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J186" s="2">
+        <v>569</v>
+      </c>
+      <c r="K186" s="2">
+        <v>33.37243402</v>
+      </c>
+      <c r="L186" s="2">
+        <v>456</v>
       </c>
       <c r="M186" s="2" t="s">
         <v>16</v>
@@ -9816,7 +9820,7 @@
         <v>1751</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F187" s="2">
         <v>8</v>
@@ -9830,14 +9834,14 @@
       <c r="I187" s="2">
         <v>19.588806399999999</v>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K187" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L187" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J187" s="2">
+        <v>819</v>
+      </c>
+      <c r="K187" s="2">
+        <v>46.773272419999998</v>
+      </c>
+      <c r="L187" s="2">
+        <v>476</v>
       </c>
       <c r="M187" s="2">
         <v>26</v>
@@ -9866,7 +9870,7 @@
         <v>2142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F188" s="2">
         <v>9</v>
@@ -9880,14 +9884,14 @@
       <c r="I188" s="2">
         <v>17.366946779999999</v>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K188" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L188" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J188" s="2">
+        <v>780</v>
+      </c>
+      <c r="K188" s="2">
+        <v>36.414565830000001</v>
+      </c>
+      <c r="L188" s="2">
+        <v>408</v>
       </c>
       <c r="M188" s="2">
         <v>30</v>
@@ -9916,7 +9920,7 @@
         <v>1377</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F189" s="2">
         <v>3</v>
@@ -9930,14 +9934,14 @@
       <c r="I189" s="2">
         <v>53.59477124</v>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K189" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L189" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J189" s="2">
+        <v>437</v>
+      </c>
+      <c r="K189" s="2">
+        <v>31.735657230000001</v>
+      </c>
+      <c r="L189" s="2">
+        <v>301</v>
       </c>
       <c r="M189" s="2">
         <v>15</v>
@@ -9966,7 +9970,7 @@
         <v>1703</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F190" s="2">
         <v>5</v>
@@ -9980,14 +9984,14 @@
       <c r="I190" s="2">
         <v>31.180270109999999</v>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K190" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L190" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J190" s="2">
+        <v>643</v>
+      </c>
+      <c r="K190" s="2">
+        <v>37.756899590000003</v>
+      </c>
+      <c r="L190" s="2">
+        <v>112</v>
       </c>
       <c r="M190" s="2">
         <v>30</v>
@@ -10016,7 +10020,7 @@
         <v>2118</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F191" s="2">
         <v>7</v>
@@ -10030,14 +10034,14 @@
       <c r="I191" s="2">
         <v>16.288951839999999</v>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K191" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L191" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J191" s="2">
+        <v>807</v>
+      </c>
+      <c r="K191" s="2">
+        <v>38.101982999999997</v>
+      </c>
+      <c r="L191" s="2">
+        <v>462</v>
       </c>
       <c r="M191" s="2">
         <v>18</v>
@@ -10063,10 +10067,10 @@
         <v>110</v>
       </c>
       <c r="D192" s="2">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F192" s="2">
         <v>10</v>
@@ -10078,16 +10082,16 @@
         <v>39</v>
       </c>
       <c r="I192" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="J192" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K192" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L192" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>1.955867603</v>
+      </c>
+      <c r="J192" s="2">
+        <v>817</v>
+      </c>
+      <c r="K192" s="2">
+        <v>40.972918759999999</v>
+      </c>
+      <c r="L192" s="2">
+        <v>778</v>
       </c>
       <c r="M192" s="2">
         <v>6</v>
@@ -10116,7 +10120,7 @@
         <v>2011</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F193" s="2">
         <v>8</v>
@@ -10130,14 +10134,14 @@
       <c r="I193" s="2">
         <v>27.498756839999999</v>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K193" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L193" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J193" s="2">
+        <v>753</v>
+      </c>
+      <c r="K193" s="2">
+        <v>37.44405768</v>
+      </c>
+      <c r="L193" s="2">
+        <v>200</v>
       </c>
       <c r="M193" s="2">
         <v>0</v>
@@ -10166,7 +10170,7 @@
         <v>1662</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F194" s="2">
         <v>10</v>
@@ -10180,14 +10184,14 @@
       <c r="I194" s="2">
         <v>8.7845968709999998</v>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K194" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L194" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J194" s="2">
+        <v>598</v>
+      </c>
+      <c r="K194" s="2">
+        <v>35.980746089999997</v>
+      </c>
+      <c r="L194" s="2">
+        <v>452</v>
       </c>
       <c r="M194" s="2">
         <v>17</v>
@@ -10216,7 +10220,7 @@
         <v>1564</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F195" s="2">
         <v>5</v>
@@ -10230,14 +10234,14 @@
       <c r="I195" s="2">
         <v>24.552429669999999</v>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K195" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L195" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J195" s="2">
+        <v>552</v>
+      </c>
+      <c r="K195" s="2">
+        <v>35.294117649999997</v>
+      </c>
+      <c r="L195" s="2">
+        <v>168</v>
       </c>
       <c r="M195" s="2">
         <v>21</v>
@@ -10266,7 +10270,7 @@
         <v>1698</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F196" s="2">
         <v>6</v>
@@ -10280,14 +10284,14 @@
       <c r="I196" s="2">
         <v>26.325088340000001</v>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K196" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L196" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J196" s="2">
+        <v>544</v>
+      </c>
+      <c r="K196" s="2">
+        <v>32.0376914</v>
+      </c>
+      <c r="L196" s="2">
+        <v>97</v>
       </c>
       <c r="M196" s="2">
         <v>27</v>
@@ -10316,7 +10320,7 @@
         <v>1367</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F197" s="2">
         <v>5</v>
@@ -10330,14 +10334,14 @@
       <c r="I197" s="2">
         <v>64.667154350000004</v>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K197" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L197" s="2" t="e">
-        <v>#VALUE!</v>
+      <c r="J197" s="2">
+        <v>484</v>
+      </c>
+      <c r="K197" s="2">
+        <v>35.405998539999999</v>
+      </c>
+      <c r="L197" s="2">
+        <v>400</v>
       </c>
       <c r="M197" s="2" t="s">
         <v>16</v>
@@ -10366,7 +10370,7 @@
         <v>1809</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F198" s="2">
         <v>19</v>
@@ -10416,7 +10420,7 @@
         <v>1655</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F199" s="2">
         <v>17</v>
@@ -10466,7 +10470,7 @@
         <v>1900</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F200" s="2">
         <v>10</v>
@@ -10516,7 +10520,7 @@
         <v>1533</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F201" s="2">
         <v>32</v>
@@ -10566,7 +10570,7 @@
         <v>1648</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F202" s="2">
         <v>32</v>
@@ -10616,7 +10620,7 @@
         <v>1715</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F203" s="2">
         <v>21</v>
@@ -10666,7 +10670,7 @@
         <v>1745</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F204" s="2">
         <v>12</v>
@@ -10716,7 +10720,7 @@
         <v>2310</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F205" s="2">
         <v>76</v>
@@ -10766,7 +10770,7 @@
         <v>2237</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F206" s="2">
         <v>66</v>
@@ -10816,7 +10820,7 @@
         <v>2055</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F207" s="2">
         <v>17</v>
@@ -10866,7 +10870,7 @@
         <v>2166</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F208" s="2">
         <v>4</v>
@@ -10916,7 +10920,7 @@
         <v>1449</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F209" s="2">
         <v>11</v>
@@ -10966,7 +10970,7 @@
         <v>1529</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F210" s="2">
         <v>65</v>
@@ -11016,7 +11020,7 @@
         <v>1807</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F211" s="2">
         <v>14</v>
@@ -11066,7 +11070,7 @@
         <v>1517</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F212" s="2">
         <v>15</v>
@@ -11116,7 +11120,7 @@
         <v>1833</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F213" s="2">
         <v>65</v>
@@ -11163,10 +11167,10 @@
         <v>110</v>
       </c>
       <c r="D214" s="2">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F214" s="2">
         <v>5</v>
@@ -11178,13 +11182,13 @@
         <v>309</v>
       </c>
       <c r="I214" s="2">
-        <v>15.05847953</v>
+        <v>15.1026393</v>
       </c>
       <c r="J214" s="2">
         <v>542</v>
       </c>
       <c r="K214" s="2">
-        <v>26.413255360000001</v>
+        <v>26.490713589999999</v>
       </c>
       <c r="L214" s="2">
         <v>233</v>
@@ -11216,7 +11220,7 @@
         <v>2447</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F215" s="2">
         <v>6</v>
@@ -11266,7 +11270,7 @@
         <v>2049</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F216" s="2">
         <v>332</v>
@@ -11316,7 +11320,7 @@
         <v>1980</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F217" s="2">
         <v>24</v>
@@ -11366,7 +11370,7 @@
         <v>1601</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F218" s="2">
         <v>22</v>
@@ -11416,7 +11420,7 @@
         <v>1509</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F219" s="2">
         <v>543</v>
@@ -11466,7 +11470,7 @@
         <v>1915</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F220" s="2">
         <v>330</v>
@@ -11516,7 +11520,7 @@
         <v>1143</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F221" s="2">
         <v>652</v>
@@ -11566,7 +11570,7 @@
         <v>1823</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F222" s="2">
         <v>543</v>
@@ -11616,7 +11620,7 @@
         <v>2110</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F223" s="2">
         <v>342</v>
@@ -11666,7 +11670,7 @@
         <v>2174</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F224" s="2">
         <v>600</v>
@@ -11716,7 +11720,7 @@
         <v>2296</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F225" s="2">
         <v>765</v>
@@ -11766,7 +11770,7 @@
         <v>1436</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F226" s="2">
         <v>763</v>
@@ -11816,7 +11820,7 @@
         <v>1396</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F227" s="2">
         <v>350</v>
@@ -11866,7 +11870,7 @@
         <v>1608</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F228" s="2">
         <v>400</v>
@@ -11916,7 +11920,7 @@
         <v>1737</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F229" s="2">
         <v>557</v>
@@ -11966,7 +11970,7 @@
         <v>2475</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F230" s="2">
         <v>111</v>
@@ -12016,7 +12020,7 @@
         <v>1284</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F231" s="2">
         <v>560</v>
@@ -12039,17 +12043,17 @@
       <c r="L231" s="2">
         <v>730</v>
       </c>
-      <c r="M231" s="2">
-        <v>18</v>
-      </c>
-      <c r="N231" s="2">
-        <v>408</v>
-      </c>
-      <c r="O231" s="2">
-        <v>527</v>
-      </c>
-      <c r="P231" s="2">
-        <v>490</v>
+      <c r="M231" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N231" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O231" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P231" s="2" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.2">
@@ -12066,7 +12070,7 @@
         <v>1604</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F232" s="2">
         <v>600</v>
@@ -12116,7 +12120,7 @@
         <v>1658</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F233" s="2">
         <v>900</v>
@@ -12166,7 +12170,7 @@
         <v>1931</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F234" s="2">
         <v>300</v>
@@ -12216,7 +12220,7 @@
         <v>1555</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F235" s="2">
         <v>403</v>
